--- a/Code/Results/Cases/Case_4_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9674500587121982</v>
+        <v>1.023776695207828</v>
       </c>
       <c r="D2">
-        <v>0.9917027519606574</v>
+        <v>1.028076240274174</v>
       </c>
       <c r="E2">
-        <v>0.9758634553306781</v>
+        <v>1.027401033497069</v>
       </c>
       <c r="F2">
-        <v>0.9424908114490362</v>
+        <v>1.022247711018488</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030944516918834</v>
+        <v>1.028686702996859</v>
       </c>
       <c r="J2">
-        <v>0.9906499168822006</v>
+        <v>1.028955015429087</v>
       </c>
       <c r="K2">
-        <v>1.003278903869835</v>
+        <v>1.03089411017277</v>
       </c>
       <c r="L2">
-        <v>0.9876696167457657</v>
+        <v>1.030220870343491</v>
       </c>
       <c r="M2">
-        <v>0.9548140672270247</v>
+        <v>1.025082653158573</v>
       </c>
       <c r="N2">
-        <v>0.9997446801920932</v>
+        <v>1.013509824634163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9759496609816933</v>
+        <v>1.025362752275332</v>
       </c>
       <c r="D3">
-        <v>0.9980310304133162</v>
+        <v>1.029259254878176</v>
       </c>
       <c r="E3">
-        <v>0.9837917106469951</v>
+        <v>1.028935580638563</v>
       </c>
       <c r="F3">
-        <v>0.9540616377946494</v>
+        <v>1.024480971519728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033152105980271</v>
+        <v>1.029000792948254</v>
       </c>
       <c r="J3">
-        <v>0.9971181490426589</v>
+        <v>1.030176401680108</v>
       </c>
       <c r="K3">
-        <v>1.008689166720943</v>
+        <v>1.031883971621403</v>
       </c>
       <c r="L3">
-        <v>0.9946362681473793</v>
+        <v>1.031561170960843</v>
       </c>
       <c r="M3">
-        <v>0.965318129010162</v>
+        <v>1.027118645288076</v>
       </c>
       <c r="N3">
-        <v>1.002030991813</v>
+        <v>1.01393068903879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9812428564687083</v>
+        <v>1.026385986910749</v>
       </c>
       <c r="D4">
-        <v>1.001974346286907</v>
+        <v>1.030021941902366</v>
       </c>
       <c r="E4">
-        <v>0.9887351938731658</v>
+        <v>1.029925896153531</v>
       </c>
       <c r="F4">
-        <v>0.9612503596490374</v>
+        <v>1.025922337414584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034512050806172</v>
+        <v>1.029201498046556</v>
       </c>
       <c r="J4">
-        <v>1.001138854199067</v>
+        <v>1.030963386428654</v>
       </c>
       <c r="K4">
-        <v>1.012049000952136</v>
+        <v>1.032521119099022</v>
       </c>
       <c r="L4">
-        <v>0.9989715038185433</v>
+        <v>1.032425319314288</v>
       </c>
       <c r="M4">
-        <v>0.9718401067112089</v>
+        <v>1.028432057511766</v>
       </c>
       <c r="N4">
-        <v>1.003450820968097</v>
+        <v>1.014201464791786</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9834221571771454</v>
+        <v>1.026815438853932</v>
       </c>
       <c r="D5">
-        <v>1.003598266886808</v>
+        <v>1.030341914195507</v>
       </c>
       <c r="E5">
-        <v>0.9907718941561516</v>
+        <v>1.030341606110571</v>
       </c>
       <c r="F5">
-        <v>0.9642067534625465</v>
+        <v>1.026527427069315</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035068322227952</v>
+        <v>1.029285271708223</v>
       </c>
       <c r="J5">
-        <v>1.002792429029414</v>
+        <v>1.031293448158413</v>
       </c>
       <c r="K5">
-        <v>1.013429941798072</v>
+        <v>1.032788180804951</v>
       </c>
       <c r="L5">
-        <v>1.000755552904859</v>
+        <v>1.032787873491131</v>
       </c>
       <c r="M5">
-        <v>0.9745212621552972</v>
+        <v>1.028983279551106</v>
       </c>
       <c r="N5">
-        <v>1.004034379340577</v>
+        <v>1.014314931232814</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9837854708482113</v>
+        <v>1.026887504158777</v>
       </c>
       <c r="D6">
-        <v>1.003869010703244</v>
+        <v>1.030395600447497</v>
       </c>
       <c r="E6">
-        <v>0.991111513845083</v>
+        <v>1.030411369740169</v>
       </c>
       <c r="F6">
-        <v>0.9646994420784775</v>
+        <v>1.026628974569171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035160842390454</v>
+        <v>1.029299302427204</v>
       </c>
       <c r="J6">
-        <v>1.003067990292069</v>
+        <v>1.031348821175944</v>
       </c>
       <c r="K6">
-        <v>1.0136600184348</v>
+        <v>1.032832975277508</v>
       </c>
       <c r="L6">
-        <v>1.001052922717858</v>
+        <v>1.032848705252878</v>
       </c>
       <c r="M6">
-        <v>0.9749680186135253</v>
+        <v>1.029075777927626</v>
       </c>
       <c r="N6">
-        <v>1.004131604112228</v>
+        <v>1.014333961295409</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9812721526407789</v>
+        <v>1.026391728061997</v>
       </c>
       <c r="D7">
-        <v>1.001996175200346</v>
+        <v>1.030026219973189</v>
       </c>
       <c r="E7">
-        <v>0.988762567701267</v>
+        <v>1.029931453303379</v>
       </c>
       <c r="F7">
-        <v>0.961290114464743</v>
+        <v>1.025930425998529</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034519543258018</v>
+        <v>1.029202619798024</v>
       </c>
       <c r="J7">
-        <v>1.0011610903374</v>
+        <v>1.030967799804982</v>
       </c>
       <c r="K7">
-        <v>1.012067574315613</v>
+        <v>1.032524690702325</v>
       </c>
       <c r="L7">
-        <v>0.998995490060014</v>
+        <v>1.032430166647642</v>
       </c>
       <c r="M7">
-        <v>0.9718761645904775</v>
+        <v>1.028439426615142</v>
       </c>
       <c r="N7">
-        <v>1.003458669770046</v>
+        <v>1.014202982375471</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9703675638546941</v>
+        <v>1.024313350900489</v>
       </c>
       <c r="D8">
-        <v>0.9938743412975178</v>
+        <v>1.028476631691251</v>
       </c>
       <c r="E8">
-        <v>0.9785834975306003</v>
+        <v>1.027920195268045</v>
       </c>
       <c r="F8">
-        <v>0.946466665553552</v>
+        <v>1.023003234276531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031705377618571</v>
+        <v>1.028793377531809</v>
       </c>
       <c r="J8">
-        <v>0.9928717073644774</v>
+        <v>1.029368485860404</v>
       </c>
       <c r="K8">
-        <v>1.005137932892164</v>
+        <v>1.031229339493956</v>
       </c>
       <c r="L8">
-        <v>0.9900616022415045</v>
+        <v>1.030674483692468</v>
       </c>
       <c r="M8">
-        <v>0.9584241634175287</v>
+        <v>1.025771571061255</v>
       </c>
       <c r="N8">
-        <v>1.000530274205755</v>
+        <v>1.013652381302716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9493869307073584</v>
+        <v>1.02062697436999</v>
       </c>
       <c r="D9">
-        <v>0.9782762287908789</v>
+        <v>1.025724160925854</v>
       </c>
       <c r="E9">
-        <v>0.9590536257567269</v>
+        <v>1.024355296707677</v>
       </c>
       <c r="F9">
-        <v>0.9177597989364795</v>
+        <v>1.017815617315894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026172063775899</v>
+        <v>1.028052692111552</v>
       </c>
       <c r="J9">
-        <v>0.97686290437246</v>
+        <v>1.02652423905188</v>
       </c>
       <c r="K9">
-        <v>0.9917318745972337</v>
+        <v>1.028920628268163</v>
       </c>
       <c r="L9">
-        <v>0.9728479051190011</v>
+        <v>1.027556334871884</v>
       </c>
       <c r="M9">
-        <v>0.9323447474670385</v>
+        <v>1.021038678766925</v>
       </c>
       <c r="N9">
-        <v>0.9948657241893875</v>
+        <v>1.012670096738093</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9339060372180666</v>
+        <v>1.018152334236882</v>
       </c>
       <c r="D10">
-        <v>0.9668015989346851</v>
+        <v>1.023873844663236</v>
       </c>
       <c r="E10">
-        <v>0.9446881891136633</v>
+        <v>1.021963875212398</v>
       </c>
       <c r="F10">
-        <v>0.8963694601174719</v>
+        <v>1.014335705578481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022013794411469</v>
+        <v>1.027545538850753</v>
       </c>
       <c r="J10">
-        <v>0.9650116792393585</v>
+        <v>1.024609829127879</v>
       </c>
       <c r="K10">
-        <v>0.9817972968811117</v>
+        <v>1.027363335487665</v>
       </c>
       <c r="L10">
-        <v>0.9601334828724167</v>
+        <v>1.025460384387471</v>
       </c>
       <c r="M10">
-        <v>0.9129009900045562</v>
+        <v>1.017860536854615</v>
       </c>
       <c r="N10">
-        <v>0.9906695712673074</v>
+        <v>1.012006893379097</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.926759908409447</v>
+        <v>1.017076537603285</v>
       </c>
       <c r="D11">
-        <v>0.961517166291183</v>
+        <v>1.023068861929922</v>
       </c>
       <c r="E11">
-        <v>0.9380696380811854</v>
+        <v>1.020924660276648</v>
       </c>
       <c r="F11">
-        <v>0.8864212698728686</v>
+        <v>1.012823397272293</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020077959574985</v>
+        <v>1.027322716678864</v>
       </c>
       <c r="J11">
-        <v>0.9595322600783152</v>
+        <v>1.023776376927169</v>
       </c>
       <c r="K11">
-        <v>0.9772032286914973</v>
+        <v>1.026684574788531</v>
       </c>
       <c r="L11">
-        <v>0.9542622623499554</v>
+        <v>1.024548565340478</v>
       </c>
       <c r="M11">
-        <v>0.903858031023417</v>
+        <v>1.016478601891089</v>
       </c>
       <c r="N11">
-        <v>0.9887297880298251</v>
+        <v>1.011717684724444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9240294533492653</v>
+        <v>1.016676280875228</v>
       </c>
       <c r="D12">
-        <v>0.9595003179419419</v>
+        <v>1.022769275036922</v>
       </c>
       <c r="E12">
-        <v>0.9355428640599472</v>
+        <v>1.020538075371893</v>
       </c>
       <c r="F12">
-        <v>0.8826062778954079</v>
+        <v>1.012260802902105</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019336003636774</v>
+        <v>1.027239462249102</v>
       </c>
       <c r="J12">
-        <v>0.9574373516571166</v>
+        <v>1.023466105320092</v>
       </c>
       <c r="K12">
-        <v>0.9754468540344043</v>
+        <v>1.026431774019943</v>
       </c>
       <c r="L12">
-        <v>0.9520187060607481</v>
+        <v>1.024209220258865</v>
       </c>
       <c r="M12">
-        <v>0.9003904612056545</v>
+        <v>1.015964392332906</v>
       </c>
       <c r="N12">
-        <v>0.9879883078552472</v>
+        <v>1.011609948925069</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9246187634265974</v>
+        <v>1.016762167363923</v>
       </c>
       <c r="D13">
-        <v>0.9599355015224488</v>
+        <v>1.022833563904492</v>
       </c>
       <c r="E13">
-        <v>0.9360881159194727</v>
+        <v>1.020621025393884</v>
       </c>
       <c r="F13">
-        <v>0.8834303399854717</v>
+        <v>1.012381520544442</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019496239542405</v>
+        <v>1.027257342776716</v>
       </c>
       <c r="J13">
-        <v>0.9578895500408821</v>
+        <v>1.023532691103945</v>
       </c>
       <c r="K13">
-        <v>0.9758259729616056</v>
+        <v>1.026486031545291</v>
       </c>
       <c r="L13">
-        <v>0.952502938348847</v>
+        <v>1.024282040810072</v>
       </c>
       <c r="M13">
-        <v>0.9011394599409269</v>
+        <v>1.01607473311048</v>
       </c>
       <c r="N13">
-        <v>0.9881483525356615</v>
+        <v>1.01163307276249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9265358224750848</v>
+        <v>1.017043465783094</v>
       </c>
       <c r="D14">
-        <v>0.9613515968334378</v>
+        <v>1.023044109895347</v>
       </c>
       <c r="E14">
-        <v>0.937862224406257</v>
+        <v>1.020892716856389</v>
       </c>
       <c r="F14">
-        <v>0.8861084762024765</v>
+        <v>1.01277691068884</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020017113339904</v>
+        <v>1.02731584482949</v>
       </c>
       <c r="J14">
-        <v>0.9593603586573933</v>
+        <v>1.023750743945503</v>
       </c>
       <c r="K14">
-        <v>0.9770591043218577</v>
+        <v>1.02666369211225</v>
       </c>
       <c r="L14">
-        <v>0.9540781398555289</v>
+        <v>1.024520528417645</v>
       </c>
       <c r="M14">
-        <v>0.9035737151716102</v>
+        <v>1.016436115645429</v>
       </c>
       <c r="N14">
-        <v>0.9886689410428866</v>
+        <v>1.011708785618229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9277065858424696</v>
+        <v>1.017216695301557</v>
       </c>
       <c r="D15">
-        <v>0.9622167286367757</v>
+        <v>1.023173756949469</v>
       </c>
       <c r="E15">
-        <v>0.9389459678058171</v>
+        <v>1.021060038354862</v>
       </c>
       <c r="F15">
-        <v>0.8877421228248105</v>
+        <v>1.013020409252274</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020334919749821</v>
+        <v>1.027351825031658</v>
       </c>
       <c r="J15">
-        <v>0.960258426086704</v>
+        <v>1.023885001589597</v>
       </c>
       <c r="K15">
-        <v>0.9778120584666391</v>
+        <v>1.026773064357672</v>
       </c>
       <c r="L15">
-        <v>0.9550401007826607</v>
+        <v>1.024667381270156</v>
       </c>
       <c r="M15">
-        <v>0.9050586421187444</v>
+        <v>1.016658655559343</v>
       </c>
       <c r="N15">
-        <v>0.9889868313931616</v>
+        <v>1.011755393476236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9343702042277104</v>
+        <v>1.018223640027733</v>
       </c>
       <c r="D16">
-        <v>0.9671451289255404</v>
+        <v>1.023927187977966</v>
       </c>
       <c r="E16">
-        <v>0.9451183637017961</v>
+        <v>1.022032764858801</v>
       </c>
       <c r="F16">
-        <v>0.8970138944035577</v>
+        <v>1.014435954256107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022139211515812</v>
+        <v>1.027560258580779</v>
       </c>
       <c r="J16">
-        <v>0.9653674103188175</v>
+        <v>1.02466504658101</v>
       </c>
       <c r="K16">
-        <v>0.9820955463107917</v>
+        <v>1.027408288031868</v>
       </c>
       <c r="L16">
-        <v>0.9605148037733187</v>
+        <v>1.025520807807639</v>
       </c>
       <c r="M16">
-        <v>0.9134868051806596</v>
+        <v>1.017952127094568</v>
       </c>
       <c r="N16">
-        <v>0.9907955186348716</v>
+        <v>1.012026043878476</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9384254401142924</v>
+        <v>1.018854116553399</v>
       </c>
       <c r="D17">
-        <v>0.9701478315869084</v>
+        <v>1.024398773949253</v>
       </c>
       <c r="E17">
-        <v>0.9488780563429989</v>
+        <v>1.022641924826689</v>
       </c>
       <c r="F17">
-        <v>0.9026355168278708</v>
+        <v>1.015322397761303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023233122704162</v>
+        <v>1.027690137900518</v>
       </c>
       <c r="J17">
-        <v>0.9684743113915864</v>
+        <v>1.025153133388854</v>
       </c>
       <c r="K17">
-        <v>0.9847003375043372</v>
+        <v>1.027805549663539</v>
       </c>
       <c r="L17">
-        <v>0.9638460208512319</v>
+        <v>1.026054988986395</v>
       </c>
       <c r="M17">
-        <v>0.9185970904957294</v>
+        <v>1.018761920032639</v>
       </c>
       <c r="N17">
-        <v>0.9918955682329554</v>
+        <v>1.012195266964877</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9407488059703312</v>
+        <v>1.019221452919525</v>
       </c>
       <c r="D18">
-        <v>0.9718692879289014</v>
+        <v>1.024673477828124</v>
       </c>
       <c r="E18">
-        <v>0.9510332589107753</v>
+        <v>1.022996880327062</v>
       </c>
       <c r="F18">
-        <v>0.9058496307642008</v>
+        <v>1.015838918351605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023858329849651</v>
+        <v>1.027765583784259</v>
       </c>
       <c r="J18">
-        <v>0.9702535311185447</v>
+        <v>1.025437392948171</v>
       </c>
       <c r="K18">
-        <v>0.9861919283819172</v>
+        <v>1.028036837777103</v>
       </c>
       <c r="L18">
-        <v>0.9657543718629182</v>
+        <v>1.026366157960475</v>
       </c>
       <c r="M18">
-        <v>0.9215188227632739</v>
+        <v>1.0192337030006</v>
       </c>
       <c r="N18">
-        <v>0.9925255521980405</v>
+        <v>1.01229377569063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9415341501993976</v>
+        <v>1.019346636131419</v>
       </c>
       <c r="D19">
-        <v>0.9724513532467706</v>
+        <v>1.024767083331571</v>
       </c>
       <c r="E19">
-        <v>0.9517619524675726</v>
+        <v>1.023117850881047</v>
       </c>
       <c r="F19">
-        <v>0.9069350022736395</v>
+        <v>1.016014950110403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024069398990324</v>
+        <v>1.027791256341327</v>
       </c>
       <c r="J19">
-        <v>0.9708548033800664</v>
+        <v>1.025534245059318</v>
       </c>
       <c r="K19">
-        <v>0.9866959797522737</v>
+        <v>1.028115628813122</v>
       </c>
       <c r="L19">
-        <v>0.9663993958227513</v>
+        <v>1.026472189471204</v>
       </c>
       <c r="M19">
-        <v>0.9225054478429965</v>
+        <v>1.019394475447746</v>
       </c>
       <c r="N19">
-        <v>0.9927384510695821</v>
+        <v>1.012327331478007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9379947568817416</v>
+        <v>1.018786514917523</v>
       </c>
       <c r="D20">
-        <v>0.9698288126770848</v>
+        <v>1.024348214999294</v>
       </c>
       <c r="E20">
-        <v>0.9484786387281413</v>
+        <v>1.022576604791662</v>
       </c>
       <c r="F20">
-        <v>0.9020391897379106</v>
+        <v>1.015227345492714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023117102710479</v>
+        <v>1.027676235229324</v>
       </c>
       <c r="J20">
-        <v>0.9681444301325569</v>
+        <v>1.025100811206189</v>
       </c>
       <c r="K20">
-        <v>0.9844237767415986</v>
+        <v>1.027762971589177</v>
       </c>
       <c r="L20">
-        <v>0.9634922519976696</v>
+        <v>1.0259977189048</v>
       </c>
       <c r="M20">
-        <v>0.9180550059421454</v>
+        <v>1.018675094588026</v>
       </c>
       <c r="N20">
-        <v>0.9917787654218472</v>
+        <v>1.012177131261293</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9259734832158371</v>
+        <v>1.016960648716593</v>
       </c>
       <c r="D21">
-        <v>0.9609361415199337</v>
+        <v>1.02298212546981</v>
       </c>
       <c r="E21">
-        <v>0.937341758243745</v>
+        <v>1.020812726475094</v>
       </c>
       <c r="F21">
-        <v>0.8853232930748761</v>
+        <v>1.012660502026747</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019864384668355</v>
+        <v>1.027298630949413</v>
       </c>
       <c r="J21">
-        <v>0.9589289549171394</v>
+        <v>1.023686551991065</v>
       </c>
       <c r="K21">
-        <v>0.9766974111737364</v>
+        <v>1.026611394334261</v>
       </c>
       <c r="L21">
-        <v>0.9536160846993063</v>
+        <v>1.024450317961568</v>
       </c>
       <c r="M21">
-        <v>0.9028600234162081</v>
+        <v>1.016329722504916</v>
       </c>
       <c r="N21">
-        <v>0.9885162421308257</v>
+        <v>1.011686498688233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.917968753363274</v>
+        <v>1.015808838448575</v>
       </c>
       <c r="D22">
-        <v>0.9550283245847743</v>
+        <v>1.022119846297559</v>
       </c>
       <c r="E22">
-        <v>0.9299384025814461</v>
+        <v>1.019700375767605</v>
       </c>
       <c r="F22">
-        <v>0.8741087699808927</v>
+        <v>1.011041658556724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017685051911532</v>
+        <v>1.027058388476454</v>
       </c>
       <c r="J22">
-        <v>0.9527850039341538</v>
+        <v>1.022793349728666</v>
       </c>
       <c r="K22">
-        <v>0.9715466115707644</v>
+        <v>1.025883418800579</v>
       </c>
       <c r="L22">
-        <v>0.9470384371463143</v>
+        <v>1.023473608972092</v>
       </c>
       <c r="M22">
-        <v>0.8926677134919689</v>
+        <v>1.014849887243879</v>
       </c>
       <c r="N22">
-        <v>0.9863420272144591</v>
+        <v>1.011376217754636</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9222583020805457</v>
+        <v>1.016419802545104</v>
       </c>
       <c r="D23">
-        <v>0.9581927578233866</v>
+        <v>1.022577279772248</v>
       </c>
       <c r="E23">
-        <v>0.9339044528044133</v>
+        <v>1.020290375097155</v>
       </c>
       <c r="F23">
-        <v>0.8801272954376486</v>
+        <v>1.01190031969506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01885409702346</v>
+        <v>1.027186015062082</v>
       </c>
       <c r="J23">
-        <v>0.9560780987601296</v>
+        <v>1.023267237244101</v>
       </c>
       <c r="K23">
-        <v>0.9743072899343104</v>
+        <v>1.026269709063324</v>
       </c>
       <c r="L23">
-        <v>0.9505633359857598</v>
+        <v>1.023991745846818</v>
       </c>
       <c r="M23">
-        <v>0.8981373555397392</v>
+        <v>1.015634879315715</v>
       </c>
       <c r="N23">
-        <v>0.9875072626696069</v>
+        <v>1.011540875845924</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9381894931405591</v>
+        <v>1.018817062453231</v>
       </c>
       <c r="D24">
-        <v>0.9699730557256719</v>
+        <v>1.024371061537861</v>
       </c>
       <c r="E24">
-        <v>0.9486592344275376</v>
+        <v>1.022606121207317</v>
       </c>
       <c r="F24">
-        <v>0.902308843565957</v>
+        <v>1.015270297148547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023169566681095</v>
+        <v>1.027682518207468</v>
       </c>
       <c r="J24">
-        <v>0.9682935906611789</v>
+        <v>1.025124454686732</v>
       </c>
       <c r="K24">
-        <v>0.9845488279284164</v>
+        <v>1.027782212110188</v>
       </c>
       <c r="L24">
-        <v>0.9636522115517993</v>
+        <v>1.026023598055744</v>
       </c>
       <c r="M24">
-        <v>0.9183001318868598</v>
+        <v>1.018714328984833</v>
       </c>
       <c r="N24">
-        <v>0.9918315794221105</v>
+        <v>1.01218532661141</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.955048551544234</v>
+        <v>1.021582929670007</v>
       </c>
       <c r="D25">
-        <v>0.9824807255077784</v>
+        <v>1.026438398203029</v>
       </c>
       <c r="E25">
-        <v>0.9643167758965</v>
+        <v>1.025279459176653</v>
       </c>
       <c r="F25">
-        <v>0.9255347779131328</v>
+        <v>1.019160408335618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027678338928813</v>
+        <v>1.028246516048388</v>
       </c>
       <c r="J25">
-        <v>0.9811895507083589</v>
+        <v>1.027262706805107</v>
       </c>
       <c r="K25">
-        <v>0.9953572333824199</v>
+        <v>1.029520641937565</v>
       </c>
       <c r="L25">
-        <v>0.977495494402869</v>
+        <v>1.028365422786866</v>
       </c>
       <c r="M25">
-        <v>0.9394106564071572</v>
+        <v>1.022266166063971</v>
       </c>
       <c r="N25">
-        <v>0.9963973890471093</v>
+        <v>1.012925494122837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023776695207828</v>
+        <v>0.9674500587121968</v>
       </c>
       <c r="D2">
-        <v>1.028076240274174</v>
+        <v>0.9917027519606562</v>
       </c>
       <c r="E2">
-        <v>1.027401033497069</v>
+        <v>0.9758634553306766</v>
       </c>
       <c r="F2">
-        <v>1.022247711018488</v>
+        <v>0.9424908114490352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028686702996859</v>
+        <v>1.030944516918834</v>
       </c>
       <c r="J2">
-        <v>1.028955015429087</v>
+        <v>0.9906499168821993</v>
       </c>
       <c r="K2">
-        <v>1.03089411017277</v>
+        <v>1.003278903869834</v>
       </c>
       <c r="L2">
-        <v>1.030220870343491</v>
+        <v>0.9876696167457644</v>
       </c>
       <c r="M2">
-        <v>1.025082653158573</v>
+        <v>0.9548140672270236</v>
       </c>
       <c r="N2">
-        <v>1.013509824634163</v>
+        <v>0.9997446801920928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025362752275332</v>
+        <v>0.9759496609816934</v>
       </c>
       <c r="D3">
-        <v>1.029259254878176</v>
+        <v>0.9980310304133163</v>
       </c>
       <c r="E3">
-        <v>1.028935580638563</v>
+        <v>0.983791710646995</v>
       </c>
       <c r="F3">
-        <v>1.024480971519728</v>
+        <v>0.9540616377946491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029000792948254</v>
+        <v>1.033152105980271</v>
       </c>
       <c r="J3">
-        <v>1.030176401680108</v>
+        <v>0.9971181490426591</v>
       </c>
       <c r="K3">
-        <v>1.031883971621403</v>
+        <v>1.008689166720943</v>
       </c>
       <c r="L3">
-        <v>1.031561170960843</v>
+        <v>0.9946362681473793</v>
       </c>
       <c r="M3">
-        <v>1.027118645288076</v>
+        <v>0.9653181290101618</v>
       </c>
       <c r="N3">
-        <v>1.01393068903879</v>
+        <v>1.002030991813</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026385986910749</v>
+        <v>0.9812428564687069</v>
       </c>
       <c r="D4">
-        <v>1.030021941902366</v>
+        <v>1.001974346286906</v>
       </c>
       <c r="E4">
-        <v>1.029925896153531</v>
+        <v>0.9887351938731642</v>
       </c>
       <c r="F4">
-        <v>1.025922337414584</v>
+        <v>0.961250359649036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029201498046556</v>
+        <v>1.034512050806171</v>
       </c>
       <c r="J4">
-        <v>1.030963386428654</v>
+        <v>1.001138854199066</v>
       </c>
       <c r="K4">
-        <v>1.032521119099022</v>
+        <v>1.012049000952135</v>
       </c>
       <c r="L4">
-        <v>1.032425319314288</v>
+        <v>0.9989715038185418</v>
       </c>
       <c r="M4">
-        <v>1.028432057511766</v>
+        <v>0.9718401067112077</v>
       </c>
       <c r="N4">
-        <v>1.014201464791786</v>
+        <v>1.003450820968097</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026815438853932</v>
+        <v>0.9834221571771452</v>
       </c>
       <c r="D5">
-        <v>1.030341914195507</v>
+        <v>1.003598266886808</v>
       </c>
       <c r="E5">
-        <v>1.030341606110571</v>
+        <v>0.9907718941561514</v>
       </c>
       <c r="F5">
-        <v>1.026527427069315</v>
+        <v>0.9642067534625461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029285271708223</v>
+        <v>1.035068322227952</v>
       </c>
       <c r="J5">
-        <v>1.031293448158413</v>
+        <v>1.002792429029414</v>
       </c>
       <c r="K5">
-        <v>1.032788180804951</v>
+        <v>1.013429941798072</v>
       </c>
       <c r="L5">
-        <v>1.032787873491131</v>
+        <v>1.000755552904859</v>
       </c>
       <c r="M5">
-        <v>1.028983279551106</v>
+        <v>0.9745212621552969</v>
       </c>
       <c r="N5">
-        <v>1.014314931232814</v>
+        <v>1.004034379340577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026887504158777</v>
+        <v>0.9837854708482118</v>
       </c>
       <c r="D6">
-        <v>1.030395600447497</v>
+        <v>1.003869010703244</v>
       </c>
       <c r="E6">
-        <v>1.030411369740169</v>
+        <v>0.9911115138450836</v>
       </c>
       <c r="F6">
-        <v>1.026628974569171</v>
+        <v>0.9646994420784778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029299302427204</v>
+        <v>1.035160842390454</v>
       </c>
       <c r="J6">
-        <v>1.031348821175944</v>
+        <v>1.00306799029207</v>
       </c>
       <c r="K6">
-        <v>1.032832975277508</v>
+        <v>1.013660018434801</v>
       </c>
       <c r="L6">
-        <v>1.032848705252878</v>
+        <v>1.001052922717858</v>
       </c>
       <c r="M6">
-        <v>1.029075777927626</v>
+        <v>0.9749680186135258</v>
       </c>
       <c r="N6">
-        <v>1.014333961295409</v>
+        <v>1.004131604112228</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026391728061997</v>
+        <v>0.9812721526407787</v>
       </c>
       <c r="D7">
-        <v>1.030026219973189</v>
+        <v>1.001996175200346</v>
       </c>
       <c r="E7">
-        <v>1.029931453303379</v>
+        <v>0.9887625677012669</v>
       </c>
       <c r="F7">
-        <v>1.025930425998529</v>
+        <v>0.9612901144647432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029202619798024</v>
+        <v>1.034519543258017</v>
       </c>
       <c r="J7">
-        <v>1.030967799804982</v>
+        <v>1.0011610903374</v>
       </c>
       <c r="K7">
-        <v>1.032524690702325</v>
+        <v>1.012067574315612</v>
       </c>
       <c r="L7">
-        <v>1.032430166647642</v>
+        <v>0.9989954900600139</v>
       </c>
       <c r="M7">
-        <v>1.028439426615142</v>
+        <v>0.9718761645904775</v>
       </c>
       <c r="N7">
-        <v>1.014202982375471</v>
+        <v>1.003458669770046</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024313350900489</v>
+        <v>0.9703675638546936</v>
       </c>
       <c r="D8">
-        <v>1.028476631691251</v>
+        <v>0.9938743412975175</v>
       </c>
       <c r="E8">
-        <v>1.027920195268045</v>
+        <v>0.9785834975305996</v>
       </c>
       <c r="F8">
-        <v>1.023003234276531</v>
+        <v>0.9464666655535514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028793377531809</v>
+        <v>1.031705377618571</v>
       </c>
       <c r="J8">
-        <v>1.029368485860404</v>
+        <v>0.9928717073644769</v>
       </c>
       <c r="K8">
-        <v>1.031229339493956</v>
+        <v>1.005137932892164</v>
       </c>
       <c r="L8">
-        <v>1.030674483692468</v>
+        <v>0.9900616022415042</v>
       </c>
       <c r="M8">
-        <v>1.025771571061255</v>
+        <v>0.9584241634175281</v>
       </c>
       <c r="N8">
-        <v>1.013652381302716</v>
+        <v>1.000530274205755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.02062697436999</v>
+        <v>0.9493869307073596</v>
       </c>
       <c r="D9">
-        <v>1.025724160925854</v>
+        <v>0.9782762287908798</v>
       </c>
       <c r="E9">
-        <v>1.024355296707677</v>
+        <v>0.9590536257567277</v>
       </c>
       <c r="F9">
-        <v>1.017815617315894</v>
+        <v>0.9177597989364806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028052692111552</v>
+        <v>1.026172063775899</v>
       </c>
       <c r="J9">
-        <v>1.02652423905188</v>
+        <v>0.9768629043724613</v>
       </c>
       <c r="K9">
-        <v>1.028920628268163</v>
+        <v>0.9917318745972347</v>
       </c>
       <c r="L9">
-        <v>1.027556334871884</v>
+        <v>0.972847905119002</v>
       </c>
       <c r="M9">
-        <v>1.021038678766925</v>
+        <v>0.9323447474670398</v>
       </c>
       <c r="N9">
-        <v>1.012670096738093</v>
+        <v>0.9948657241893878</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018152334236882</v>
+        <v>0.9339060372180655</v>
       </c>
       <c r="D10">
-        <v>1.023873844663236</v>
+        <v>0.9668015989346842</v>
       </c>
       <c r="E10">
-        <v>1.021963875212398</v>
+        <v>0.9446881891136621</v>
       </c>
       <c r="F10">
-        <v>1.014335705578481</v>
+        <v>0.8963694601174703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027545538850753</v>
+        <v>1.022013794411469</v>
       </c>
       <c r="J10">
-        <v>1.024609829127879</v>
+        <v>0.9650116792393573</v>
       </c>
       <c r="K10">
-        <v>1.027363335487665</v>
+        <v>0.9817972968811107</v>
       </c>
       <c r="L10">
-        <v>1.025460384387471</v>
+        <v>0.9601334828724155</v>
       </c>
       <c r="M10">
-        <v>1.017860536854615</v>
+        <v>0.9129009900045546</v>
       </c>
       <c r="N10">
-        <v>1.012006893379097</v>
+        <v>0.990669571267307</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017076537603285</v>
+        <v>0.9267599084094468</v>
       </c>
       <c r="D11">
-        <v>1.023068861929922</v>
+        <v>0.9615171662911831</v>
       </c>
       <c r="E11">
-        <v>1.020924660276648</v>
+        <v>0.9380696380811855</v>
       </c>
       <c r="F11">
-        <v>1.012823397272293</v>
+        <v>0.8864212698728688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027322716678864</v>
+        <v>1.020077959574985</v>
       </c>
       <c r="J11">
-        <v>1.023776376927169</v>
+        <v>0.9595322600783153</v>
       </c>
       <c r="K11">
-        <v>1.026684574788531</v>
+        <v>0.9772032286914976</v>
       </c>
       <c r="L11">
-        <v>1.024548565340478</v>
+        <v>0.9542622623499554</v>
       </c>
       <c r="M11">
-        <v>1.016478601891089</v>
+        <v>0.9038580310234172</v>
       </c>
       <c r="N11">
-        <v>1.011717684724444</v>
+        <v>0.9887297880298253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016676280875228</v>
+        <v>0.9240294533492643</v>
       </c>
       <c r="D12">
-        <v>1.022769275036922</v>
+        <v>0.9595003179419411</v>
       </c>
       <c r="E12">
-        <v>1.020538075371893</v>
+        <v>0.9355428640599461</v>
       </c>
       <c r="F12">
-        <v>1.012260802902105</v>
+        <v>0.8826062778954071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027239462249102</v>
+        <v>1.019336003636774</v>
       </c>
       <c r="J12">
-        <v>1.023466105320092</v>
+        <v>0.9574373516571155</v>
       </c>
       <c r="K12">
-        <v>1.026431774019943</v>
+        <v>0.9754468540344036</v>
       </c>
       <c r="L12">
-        <v>1.024209220258865</v>
+        <v>0.9520187060607472</v>
       </c>
       <c r="M12">
-        <v>1.015964392332906</v>
+        <v>0.9003904612056536</v>
       </c>
       <c r="N12">
-        <v>1.011609948925069</v>
+        <v>0.9879883078552468</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016762167363923</v>
+        <v>0.9246187634265978</v>
       </c>
       <c r="D13">
-        <v>1.022833563904492</v>
+        <v>0.9599355015224491</v>
       </c>
       <c r="E13">
-        <v>1.020621025393884</v>
+        <v>0.9360881159194725</v>
       </c>
       <c r="F13">
-        <v>1.012381520544442</v>
+        <v>0.8834303399854726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027257342776716</v>
+        <v>1.019496239542405</v>
       </c>
       <c r="J13">
-        <v>1.023532691103945</v>
+        <v>0.9578895500408823</v>
       </c>
       <c r="K13">
-        <v>1.026486031545291</v>
+        <v>0.975825972961606</v>
       </c>
       <c r="L13">
-        <v>1.024282040810072</v>
+        <v>0.952502938348847</v>
       </c>
       <c r="M13">
-        <v>1.01607473311048</v>
+        <v>0.9011394599409279</v>
       </c>
       <c r="N13">
-        <v>1.01163307276249</v>
+        <v>0.9881483525356616</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017043465783094</v>
+        <v>0.926535822475085</v>
       </c>
       <c r="D14">
-        <v>1.023044109895347</v>
+        <v>0.961351596833438</v>
       </c>
       <c r="E14">
-        <v>1.020892716856389</v>
+        <v>0.9378622244062569</v>
       </c>
       <c r="F14">
-        <v>1.01277691068884</v>
+        <v>0.8861084762024771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02731584482949</v>
+        <v>1.020017113339904</v>
       </c>
       <c r="J14">
-        <v>1.023750743945503</v>
+        <v>0.9593603586573934</v>
       </c>
       <c r="K14">
-        <v>1.02666369211225</v>
+        <v>0.9770591043218578</v>
       </c>
       <c r="L14">
-        <v>1.024520528417645</v>
+        <v>0.9540781398555293</v>
       </c>
       <c r="M14">
-        <v>1.016436115645429</v>
+        <v>0.9035737151716111</v>
       </c>
       <c r="N14">
-        <v>1.011708785618229</v>
+        <v>0.9886689410428866</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017216695301557</v>
+        <v>0.92770658584247</v>
       </c>
       <c r="D15">
-        <v>1.023173756949469</v>
+        <v>0.9622167286367761</v>
       </c>
       <c r="E15">
-        <v>1.021060038354862</v>
+        <v>0.9389459678058176</v>
       </c>
       <c r="F15">
-        <v>1.013020409252274</v>
+        <v>0.8877421228248117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027351825031658</v>
+        <v>1.020334919749822</v>
       </c>
       <c r="J15">
-        <v>1.023885001589597</v>
+        <v>0.9602584260867045</v>
       </c>
       <c r="K15">
-        <v>1.026773064357672</v>
+        <v>0.9778120584666394</v>
       </c>
       <c r="L15">
-        <v>1.024667381270156</v>
+        <v>0.9550401007826612</v>
       </c>
       <c r="M15">
-        <v>1.016658655559343</v>
+        <v>0.9050586421187456</v>
       </c>
       <c r="N15">
-        <v>1.011755393476236</v>
+        <v>0.9889868313931618</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018223640027733</v>
+        <v>0.9343702042277106</v>
       </c>
       <c r="D16">
-        <v>1.023927187977966</v>
+        <v>0.9671451289255409</v>
       </c>
       <c r="E16">
-        <v>1.022032764858801</v>
+        <v>0.9451183637017961</v>
       </c>
       <c r="F16">
-        <v>1.014435954256107</v>
+        <v>0.8970138944035575</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027560258580779</v>
+        <v>1.022139211515812</v>
       </c>
       <c r="J16">
-        <v>1.02466504658101</v>
+        <v>0.9653674103188176</v>
       </c>
       <c r="K16">
-        <v>1.027408288031868</v>
+        <v>0.982095546310792</v>
       </c>
       <c r="L16">
-        <v>1.025520807807639</v>
+        <v>0.9605148037733185</v>
       </c>
       <c r="M16">
-        <v>1.017952127094568</v>
+        <v>0.9134868051806594</v>
       </c>
       <c r="N16">
-        <v>1.012026043878476</v>
+        <v>0.9907955186348716</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018854116553399</v>
+        <v>0.9384254401142932</v>
       </c>
       <c r="D17">
-        <v>1.024398773949253</v>
+        <v>0.9701478315869092</v>
       </c>
       <c r="E17">
-        <v>1.022641924826689</v>
+        <v>0.948878056343</v>
       </c>
       <c r="F17">
-        <v>1.015322397761303</v>
+        <v>0.9026355168278716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027690137900518</v>
+        <v>1.023233122704162</v>
       </c>
       <c r="J17">
-        <v>1.025153133388854</v>
+        <v>0.9684743113915872</v>
       </c>
       <c r="K17">
-        <v>1.027805549663539</v>
+        <v>0.9847003375043379</v>
       </c>
       <c r="L17">
-        <v>1.026054988986395</v>
+        <v>0.9638460208512329</v>
       </c>
       <c r="M17">
-        <v>1.018761920032639</v>
+        <v>0.9185970904957301</v>
       </c>
       <c r="N17">
-        <v>1.012195266964877</v>
+        <v>0.9918955682329555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019221452919525</v>
+        <v>0.9407488059703315</v>
       </c>
       <c r="D18">
-        <v>1.024673477828124</v>
+        <v>0.971869287928902</v>
       </c>
       <c r="E18">
-        <v>1.022996880327062</v>
+        <v>0.9510332589107754</v>
       </c>
       <c r="F18">
-        <v>1.015838918351605</v>
+        <v>0.9058496307642013</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027765583784259</v>
+        <v>1.023858329849651</v>
       </c>
       <c r="J18">
-        <v>1.025437392948171</v>
+        <v>0.9702535311185453</v>
       </c>
       <c r="K18">
-        <v>1.028036837777103</v>
+        <v>0.9861919283819176</v>
       </c>
       <c r="L18">
-        <v>1.026366157960475</v>
+        <v>0.9657543718629185</v>
       </c>
       <c r="M18">
-        <v>1.0192337030006</v>
+        <v>0.9215188227632745</v>
       </c>
       <c r="N18">
-        <v>1.01229377569063</v>
+        <v>0.9925255521980406</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019346636131419</v>
+        <v>0.9415341501993996</v>
       </c>
       <c r="D19">
-        <v>1.024767083331571</v>
+        <v>0.9724513532467725</v>
       </c>
       <c r="E19">
-        <v>1.023117850881047</v>
+        <v>0.9517619524675743</v>
       </c>
       <c r="F19">
-        <v>1.016014950110403</v>
+        <v>0.906935002273642</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027791256341327</v>
+        <v>1.024069398990325</v>
       </c>
       <c r="J19">
-        <v>1.025534245059318</v>
+        <v>0.9708548033800684</v>
       </c>
       <c r="K19">
-        <v>1.028115628813122</v>
+        <v>0.9866959797522756</v>
       </c>
       <c r="L19">
-        <v>1.026472189471204</v>
+        <v>0.966399395822753</v>
       </c>
       <c r="M19">
-        <v>1.019394475447746</v>
+        <v>0.922505447842999</v>
       </c>
       <c r="N19">
-        <v>1.012327331478007</v>
+        <v>0.9927384510695828</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018786514917523</v>
+        <v>0.9379947568817427</v>
       </c>
       <c r="D20">
-        <v>1.024348214999294</v>
+        <v>0.969828812677086</v>
       </c>
       <c r="E20">
-        <v>1.022576604791662</v>
+        <v>0.9484786387281425</v>
       </c>
       <c r="F20">
-        <v>1.015227345492714</v>
+        <v>0.9020391897379119</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027676235229324</v>
+        <v>1.02311710271048</v>
       </c>
       <c r="J20">
-        <v>1.025100811206189</v>
+        <v>0.968144430132558</v>
       </c>
       <c r="K20">
-        <v>1.027762971589177</v>
+        <v>0.9844237767415999</v>
       </c>
       <c r="L20">
-        <v>1.0259977189048</v>
+        <v>0.9634922519976706</v>
       </c>
       <c r="M20">
-        <v>1.018675094588026</v>
+        <v>0.9180550059421465</v>
       </c>
       <c r="N20">
-        <v>1.012177131261293</v>
+        <v>0.9917787654218475</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016960648716593</v>
+        <v>0.9259734832158353</v>
       </c>
       <c r="D21">
-        <v>1.02298212546981</v>
+        <v>0.9609361415199323</v>
       </c>
       <c r="E21">
-        <v>1.020812726475094</v>
+        <v>0.9373417582437431</v>
       </c>
       <c r="F21">
-        <v>1.012660502026747</v>
+        <v>0.885323293074874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027298630949413</v>
+        <v>1.019864384668355</v>
       </c>
       <c r="J21">
-        <v>1.023686551991065</v>
+        <v>0.9589289549171376</v>
       </c>
       <c r="K21">
-        <v>1.026611394334261</v>
+        <v>0.9766974111737349</v>
       </c>
       <c r="L21">
-        <v>1.024450317961568</v>
+        <v>0.9536160846993046</v>
       </c>
       <c r="M21">
-        <v>1.016329722504916</v>
+        <v>0.9028600234162061</v>
       </c>
       <c r="N21">
-        <v>1.011686498688233</v>
+        <v>0.988516242130825</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015808838448575</v>
+        <v>0.9179687533632754</v>
       </c>
       <c r="D22">
-        <v>1.022119846297559</v>
+        <v>0.9550283245847753</v>
       </c>
       <c r="E22">
-        <v>1.019700375767605</v>
+        <v>0.9299384025814473</v>
       </c>
       <c r="F22">
-        <v>1.011041658556724</v>
+        <v>0.8741087699808942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027058388476454</v>
+        <v>1.017685051911533</v>
       </c>
       <c r="J22">
-        <v>1.022793349728666</v>
+        <v>0.9527850039341552</v>
       </c>
       <c r="K22">
-        <v>1.025883418800579</v>
+        <v>0.9715466115707655</v>
       </c>
       <c r="L22">
-        <v>1.023473608972092</v>
+        <v>0.9470384371463156</v>
       </c>
       <c r="M22">
-        <v>1.014849887243879</v>
+        <v>0.8926677134919703</v>
       </c>
       <c r="N22">
-        <v>1.011376217754636</v>
+        <v>0.9863420272144595</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016419802545104</v>
+        <v>0.922258302080546</v>
       </c>
       <c r="D23">
-        <v>1.022577279772248</v>
+        <v>0.9581927578233872</v>
       </c>
       <c r="E23">
-        <v>1.020290375097155</v>
+        <v>0.9339044528044137</v>
       </c>
       <c r="F23">
-        <v>1.01190031969506</v>
+        <v>0.880127295437649</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027186015062082</v>
+        <v>1.018854097023461</v>
       </c>
       <c r="J23">
-        <v>1.023267237244101</v>
+        <v>0.9560780987601299</v>
       </c>
       <c r="K23">
-        <v>1.026269709063324</v>
+        <v>0.9743072899343107</v>
       </c>
       <c r="L23">
-        <v>1.023991745846818</v>
+        <v>0.9505633359857604</v>
       </c>
       <c r="M23">
-        <v>1.015634879315715</v>
+        <v>0.8981373555397396</v>
       </c>
       <c r="N23">
-        <v>1.011540875845924</v>
+        <v>0.987507262669607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018817062453231</v>
+        <v>0.9381894931405598</v>
       </c>
       <c r="D24">
-        <v>1.024371061537861</v>
+        <v>0.9699730557256725</v>
       </c>
       <c r="E24">
-        <v>1.022606121207317</v>
+        <v>0.9486592344275381</v>
       </c>
       <c r="F24">
-        <v>1.015270297148547</v>
+        <v>0.9023088435659576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027682518207468</v>
+        <v>1.023169566681096</v>
       </c>
       <c r="J24">
-        <v>1.025124454686732</v>
+        <v>0.9682935906611795</v>
       </c>
       <c r="K24">
-        <v>1.027782212110188</v>
+        <v>0.9845488279284169</v>
       </c>
       <c r="L24">
-        <v>1.026023598055744</v>
+        <v>0.9636522115518</v>
       </c>
       <c r="M24">
-        <v>1.018714328984833</v>
+        <v>0.9183001318868605</v>
       </c>
       <c r="N24">
-        <v>1.01218532661141</v>
+        <v>0.9918315794221106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021582929670007</v>
+        <v>0.9550485515442357</v>
       </c>
       <c r="D25">
-        <v>1.026438398203029</v>
+        <v>0.9824807255077799</v>
       </c>
       <c r="E25">
-        <v>1.025279459176653</v>
+        <v>0.9643167758965017</v>
       </c>
       <c r="F25">
-        <v>1.019160408335618</v>
+        <v>0.9255347779131351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028246516048388</v>
+        <v>1.027678338928814</v>
       </c>
       <c r="J25">
-        <v>1.027262706805107</v>
+        <v>0.9811895507083607</v>
       </c>
       <c r="K25">
-        <v>1.029520641937565</v>
+        <v>0.9953572333824213</v>
       </c>
       <c r="L25">
-        <v>1.028365422786866</v>
+        <v>0.9774954944028708</v>
       </c>
       <c r="M25">
-        <v>1.022266166063971</v>
+        <v>0.9394106564071595</v>
       </c>
       <c r="N25">
-        <v>1.012925494122837</v>
+        <v>0.9963973890471098</v>
       </c>
     </row>
   </sheetData>
